--- a/运行用例表.xlsx
+++ b/运行用例表.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
